--- a/Azure Bootcamp 2019.xlsx
+++ b/Azure Bootcamp 2019.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/save_microsoft_com/Documents/Personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E447BED9-3D40-425E-8DBD-CA05BA8F9B4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{E447BED9-3D40-425E-8DBD-CA05BA8F9B4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E0D2B2DD-6BED-4374-9B67-3539EBA58DFA}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{63633771-5DD1-43E9-9F63-C381E42E660D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Fields" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Allocation" sheetId="3" r:id="rId2"/>
+    <sheet name="Project Seasonality" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Country</t>
   </si>
@@ -202,19 +204,80 @@
   </si>
   <si>
     <t>Contract Status</t>
+  </si>
+  <si>
+    <t>Mon 1</t>
+  </si>
+  <si>
+    <t>Mon 2</t>
+  </si>
+  <si>
+    <t>Mon 3</t>
+  </si>
+  <si>
+    <t>Mon 4</t>
+  </si>
+  <si>
+    <t>Mon 5</t>
+  </si>
+  <si>
+    <t>Mon 6</t>
+  </si>
+  <si>
+    <t>Mon 7</t>
+  </si>
+  <si>
+    <t>Mon 8</t>
+  </si>
+  <si>
+    <t>Mon 9</t>
+  </si>
+  <si>
+    <t>Mon 10</t>
+  </si>
+  <si>
+    <t>Mon 11</t>
+  </si>
+  <si>
+    <t>Mon 12</t>
+  </si>
+  <si>
+    <t>Allocation %</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,13 +297,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,7 +626,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -780,4 +850,360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DC39DD-841E-4552-97AA-17BA8B7A3F04}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF274A78-7E03-4829-979A-F5E3A434722D}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="M2" s="5">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="N2" s="4">
+        <f>SUM(B2:M2)</f>
+        <v>0.999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUM(B3:M3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUM(B4:M4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4">
+        <f>SUM(B5:M5)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C6" s="5">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D6" s="5">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:I6" si="0">1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4">
+        <f>SUM(B6:M6)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>